--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-25/Sample-25.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-25/Sample-25.xlsx
@@ -171,16 +171,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ri1jahru" xfId="1"/>
-    <cellStyle name="ri1jahru_Alternate" xfId="2"/>
-    <cellStyle name="puj0u5fc" xfId="3"/>
-    <cellStyle name="puj0u5fc_Alternate" xfId="4"/>
-    <cellStyle name="1ec2ebpm" xfId="5"/>
-    <cellStyle name="1ec2ebpm_Alternate" xfId="6"/>
-    <cellStyle name="ezvo1vqp" xfId="7"/>
-    <cellStyle name="ezvo1vqp_Alternate" xfId="8"/>
-    <cellStyle name="xgnk4pop" xfId="9"/>
-    <cellStyle name="xgnk4pop_Alternate" xfId="10"/>
+    <cellStyle name="a3xm3kdk" xfId="1"/>
+    <cellStyle name="a3xm3kdk_Alternate" xfId="2"/>
+    <cellStyle name="fx10nmpb" xfId="3"/>
+    <cellStyle name="fx10nmpb_Alternate" xfId="4"/>
+    <cellStyle name="wkatkyva" xfId="5"/>
+    <cellStyle name="wkatkyva_Alternate" xfId="6"/>
+    <cellStyle name="4vkosezn" xfId="7"/>
+    <cellStyle name="4vkosezn_Alternate" xfId="8"/>
+    <cellStyle name="fi2egtph" xfId="9"/>
+    <cellStyle name="fi2egtph_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
